--- a/CentralityData1.xlsx
+++ b/CentralityData1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,27 +442,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>XLC</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>XLY</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>XLP</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>XLE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>XLF</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>XLV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -482,12 +482,17 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>XLV</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>XLK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>XLC</t>
+          <t>XLU</t>
         </is>
       </c>
     </row>
@@ -496,34 +501,37 @@
         <v>43465</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4614611700122045</v>
+        <v>0.3307557460860637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01571451461672774</v>
+        <v>0.3788381226299979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1679336100526376</v>
+        <v>0.1399733931802511</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3897414883772616</v>
+        <v>0.3991863874486533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3282636032726356</v>
+        <v>0.3991863874486533</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4330568293598629</v>
+        <v>0.3884433150290227</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3282636032726356</v>
+        <v>0.3307557460860637</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07719239972135386</v>
+        <v>0.004171026483070646</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2560916530952309</v>
+        <v>0.066073669497435</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3634731244141964</v>
+        <v>0.3788381226299979</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02451929130172594</v>
       </c>
     </row>
     <row r="3">
@@ -531,34 +539,37 @@
         <v>43496</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4307637280803787</v>
+        <v>0.3696358130756708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07176337762457671</v>
+        <v>0.3689977410592288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1947313741684067</v>
+        <v>0.1774219746794964</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4125426781302185</v>
+        <v>0.3696358130756709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2722174797782656</v>
+        <v>0.3696358130756709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3714452962652192</v>
+        <v>0.3689977410592288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3501351891131301</v>
+        <v>0.3689977410592288</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2055876949772922</v>
+        <v>0.004426247448805767</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3311088698012133</v>
+        <v>0.172696403134818</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3385452108375624</v>
+        <v>0.3456921303655086</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02836993015896809</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +577,37 @@
         <v>43524</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4534129674544182</v>
+        <v>0.3468141898710517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05334269869509875</v>
+        <v>0.3788884299256934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2118595027628198</v>
+        <v>0.05688844132578087</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3784073204575897</v>
+        <v>0.3788884299256934</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2876952598651115</v>
+        <v>0.3545102118078544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3298816746611999</v>
+        <v>0.3788884299256934</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4077801876973322</v>
+        <v>0.3788884299256934</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2910020723696937</v>
+        <v>0.001427789874789356</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2723285660094433</v>
+        <v>0.2370970234387548</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2945750686335844</v>
+        <v>0.3468141898710517</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.009123811811592107</v>
       </c>
     </row>
     <row r="5">
@@ -601,34 +615,37 @@
         <v>43555</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421705415194788</v>
+        <v>0.3576481829181453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02786635908054535</v>
+        <v>0.3837853278479516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3775520756855227</v>
+        <v>0.06016798454649194</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2847083028363294</v>
+        <v>0.3576481829181453</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1446897353736895</v>
+        <v>0.3659559771435166</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4205996360087943</v>
+        <v>0.3837853278479516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3676949954727871</v>
+        <v>0.3837853278479516</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1518177497214139</v>
+        <v>0.03032420195709991</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3540074879603456</v>
+        <v>0.1892970449727098</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3411376666056629</v>
+        <v>0.3576481829181453</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.009638782121174432</v>
       </c>
     </row>
     <row r="6">
@@ -636,34 +653,37 @@
         <v>43585</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3620427758135956</v>
+        <v>0.3183546225437364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1259038567441182</v>
+        <v>0.3590055543028742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3795520342309182</v>
+        <v>0.3729480374120404</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3795520342309182</v>
+        <v>0.3590055543028742</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1224630782533999</v>
+        <v>0.3590055543028742</v>
       </c>
       <c r="G6" t="n">
-        <v>0.379073199863058</v>
+        <v>0.3658437727048969</v>
       </c>
       <c r="H6" t="n">
-        <v>0.379073199863058</v>
+        <v>0.3183546225437364</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02033774025613395</v>
+        <v>0.05459341183401675</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3620427758135956</v>
+        <v>0.05355306397408332</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3620427758135956</v>
+        <v>0.3590055543028742</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.05459341183401675</v>
       </c>
     </row>
     <row r="7">
@@ -671,34 +691,37 @@
         <v>43616</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.3461254915183076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3392482021555827</v>
+        <v>0.3461254915183076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.3585697825738577</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3336483052598543</v>
+        <v>0.358569407129199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1957568032971428</v>
+        <v>0.3461254915183076</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.358569407129199</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.3461254915183076</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04647546552614711</v>
+        <v>0.05044723852795888</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3336483052598544</v>
+        <v>0.1008937283621831</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3336483052598544</v>
+        <v>0.3461254915183076</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.05044723852795888</v>
       </c>
     </row>
     <row r="8">
@@ -706,34 +729,37 @@
         <v>43646</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.3336163877148081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3392482021555827</v>
+        <v>0.3336163877148081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.3393242874682605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3336483052598543</v>
+        <v>0.3571985384434322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1957568032971428</v>
+        <v>0.3336163877148081</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.3571985384434322</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3572346524320176</v>
+        <v>0.3571985384434322</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04647546552614711</v>
+        <v>0.006489984797906242</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3336483052598544</v>
+        <v>0.1957289438712222</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3336483052598544</v>
+        <v>0.3571985384434322</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04737322706348387</v>
       </c>
     </row>
     <row r="9">
@@ -741,34 +767,37 @@
         <v>43677</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3670149774382903</v>
+        <v>0.3472941547532428</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3066322885566409</v>
+        <v>0.3472941547532428</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3670149774382903</v>
+        <v>0.3472941547532428</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3420036340007626</v>
+        <v>0.3598400669245886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2020452580855968</v>
+        <v>0.3535834435649201</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3670149774382903</v>
+        <v>0.3472941547532428</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3290564881280331</v>
+        <v>0.3598400669245886</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04332139101204083</v>
+        <v>0.05088089020050035</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3420036340007627</v>
+        <v>0.1015011528442937</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3420036340007627</v>
+        <v>0.3472941547532428</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.007176507717935865</v>
       </c>
     </row>
     <row r="10">
@@ -776,34 +805,37 @@
         <v>43708</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3838707105255788</v>
+        <v>0.351004204074731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05860631399084389</v>
+        <v>0.351004204074731</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3577230822740359</v>
+        <v>0.3574562196469043</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3658157085357187</v>
+        <v>0.3573232261881123</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1893575115874296</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3838707105255788</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3838707105255788</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03033681231087193</v>
+        <v>0.007369185441061866</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3577230822740359</v>
+        <v>0.05078218854878611</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3577230822740359</v>
+        <v>0.3510042040747309</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.05184900988043976</v>
       </c>
     </row>
     <row r="11">
@@ -811,34 +843,37 @@
         <v>43738</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3605170584145731</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3674229877910741</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3605170584145731</v>
+        <v>0.3574562196469042</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3605170584145731</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05394319442160994</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3674229877910741</v>
+        <v>0.3510042040747309</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3196019101984204</v>
+        <v>0.3573232261881123</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05394319442160994</v>
+        <v>0.007369185441061865</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3605170584145731</v>
+        <v>0.05078218854878611</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3196019101984204</v>
+        <v>0.3510042040747309</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05184900988043976</v>
       </c>
     </row>
     <row r="12">
@@ -846,34 +881,37 @@
         <v>43769</v>
       </c>
       <c r="B12" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3525167397389664</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3534991967021179</v>
+        <v>0.3583120924514644</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3598850412439298</v>
+        <v>0.324431057188461</v>
       </c>
       <c r="E12" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3525167397389664</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1015194702346591</v>
+        <v>0.324431057188461</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3598850412439298</v>
+        <v>0.324431057188461</v>
       </c>
       <c r="H12" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3525167397389664</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04985897051023664</v>
+        <v>0.04897361639699319</v>
       </c>
       <c r="J12" t="n">
-        <v>0.347336065599759</v>
+        <v>0.2373438034976718</v>
       </c>
       <c r="K12" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3525167397389664</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.006573313569550802</v>
       </c>
     </row>
     <row r="13">
@@ -881,34 +919,37 @@
         <v>43799</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3527562439144162</v>
+        <v>0.3236022306287974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3299679014347743</v>
+        <v>0.3573067865292144</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3527562439144162</v>
+        <v>0.295548993124601</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3247232107042398</v>
+        <v>0.3573067865292144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2368187751895819</v>
+        <v>0.332452663971496</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3527562439144162</v>
+        <v>0.332452663971496</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3527562439144162</v>
+        <v>0.3274733673096356</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04430447491237895</v>
+        <v>0.261602765329999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3527562439144162</v>
+        <v>0.2179427096429106</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3247232107042397</v>
+        <v>0.3274733673096356</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.03367369779108868</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +957,37 @@
         <v>43830</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3565395906147924</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3155547966803464</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3702498937785637</v>
+        <v>0.3243368313480393</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3223934577723644</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1078474257209054</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3565395906147924</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3702498937785637</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0469539673919804</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3565395906147925</v>
+        <v>0.1640923823797323</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3565395906147925</v>
+        <v>0.3200721020028355</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.03938384646669792</v>
       </c>
     </row>
     <row r="15">
@@ -951,34 +995,37 @@
         <v>43861</v>
       </c>
       <c r="B15" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3932639827449365</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3534991967021179</v>
+        <v>0.3788358053912523</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3598850412439298</v>
+        <v>0.209542833985965</v>
       </c>
       <c r="E15" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3195547351478495</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1015194702346591</v>
+        <v>0.3517898582562857</v>
       </c>
       <c r="G15" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3517898582562857</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3598850412439298</v>
+        <v>0.3610288596365002</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04985897051023664</v>
+        <v>0.2497476532924524</v>
       </c>
       <c r="J15" t="n">
-        <v>0.347336065599759</v>
+        <v>0.1117851214634789</v>
       </c>
       <c r="K15" t="n">
-        <v>0.347336065599759</v>
+        <v>0.3195547351478494</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.03105423809045606</v>
       </c>
     </row>
     <row r="16">
@@ -986,34 +1033,37 @@
         <v>43890</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3510493194492666</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3510493194492666</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3573699987621844</v>
+        <v>0.3057254625185457</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3510493194492666</v>
+        <v>0.3057254625185457</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05079182933638807</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3510493194492666</v>
+        <v>0.3131117671839524</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3573699987621844</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05079182933638807</v>
+        <v>0.3172291620135789</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3510493194492666</v>
+        <v>0.2370930072303554</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3510493194492666</v>
+        <v>0.3131117671839524</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.03825773103613965</v>
       </c>
     </row>
     <row r="17">
@@ -1021,34 +1071,37 @@
         <v>43921</v>
       </c>
       <c r="B17" t="n">
-        <v>0.358243871419556</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3244642912211909</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3525535564934201</v>
+        <v>0.3057254625185457</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3244642912211909</v>
+        <v>0.3057254625185457</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2373646387092582</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3244642912211909</v>
+        <v>0.3131117671839524</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3525535564934201</v>
+        <v>0.3386276850554762</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04808416852879862</v>
+        <v>0.3172291620135789</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3525535564934201</v>
+        <v>0.2370930072303554</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3525535564934201</v>
+        <v>0.3131117671839524</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.03825773103613965</v>
       </c>
     </row>
     <row r="18">
@@ -1056,34 +1109,37 @@
         <v>43951</v>
       </c>
       <c r="B18" t="n">
-        <v>0.380770247906562</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06271431989272171</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3719014644931861</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3719014644931861</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06271431989272171</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3719014644931861</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="H18" t="n">
-        <v>0.380770247906562</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06271431989272171</v>
+        <v>0.3192123497337234</v>
       </c>
       <c r="J18" t="n">
-        <v>0.380770247906562</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3719014644931861</v>
+        <v>0.3156736344443608</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.03542434794979182</v>
       </c>
     </row>
     <row r="19">
@@ -1091,34 +1147,37 @@
         <v>43982</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3799140628011375</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1508497635732624</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3603959190767891</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3603959190767891</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04886431355819117</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3603959190767891</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="H19" t="n">
-        <v>0.328792086405379</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2931233344131118</v>
+        <v>0.3192123497337234</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3419876216579096</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3603959190767891</v>
+        <v>0.3156736344443608</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.03542434794979182</v>
       </c>
     </row>
     <row r="20">
@@ -1126,34 +1185,37 @@
         <v>44012</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3923877543378783</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06386170643858162</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3657747016874307</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3657747016874307</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06091742123975494</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3834487858558878</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3657747016874307</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="I20" t="n">
-        <v>0.126268243011829</v>
+        <v>0.3192123497337234</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3657747016874307</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3743012561295552</v>
+        <v>0.3156736344443608</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.03542434794979182</v>
       </c>
     </row>
     <row r="21">
@@ -1161,34 +1223,37 @@
         <v>44043</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3813716580259907</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2195390091173142</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2195390091173142</v>
+        <v>0.2916623852308127</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3529477507491742</v>
+        <v>0.2916623852308127</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05783422199877675</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3245238434723577</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3888597744100082</v>
+        <v>0.3250903708360747</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3529477507491743</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3529477507491743</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3529477507491743</v>
+        <v>0.3213422566988268</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.03682981523910149</v>
       </c>
     </row>
     <row r="22">
@@ -1196,34 +1261,37 @@
         <v>44074</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3785861887154547</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3060884508004282</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2622173356117151</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3785861887154547</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05143008827258098</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3451442096197281</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3518312446243254</v>
+        <v>0.3192123497337234</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3062351787669745</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2612175980115241</v>
+        <v>0.3156736344443608</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3785861887154547</v>
+        <v>0.3156736344443608</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.03542434794979182</v>
       </c>
     </row>
     <row r="23">
@@ -1231,34 +1299,37 @@
         <v>44104</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4351899917589939</v>
+        <v>0.3214795448301067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1559844458783461</v>
+        <v>0.3214795448301067</v>
       </c>
       <c r="D23" t="n">
-        <v>0.218489923711557</v>
+        <v>0.2952220398857545</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3883083543236261</v>
+        <v>0.2914309846829927</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02812472006497383</v>
+        <v>0.3214795448301066</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3549322247419859</v>
+        <v>0.3214795448301066</v>
       </c>
       <c r="H23" t="n">
-        <v>0.388308354323626</v>
+        <v>0.3214795448301066</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3549322247419859</v>
+        <v>0.3214795448301066</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1509131301149736</v>
+        <v>0.3214795448301066</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4018138621773537</v>
+        <v>0.3214795448301066</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.03345364522761592</v>
       </c>
     </row>
     <row r="24">
@@ -1266,34 +1337,37 @@
         <v>44135</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4030126562828427</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08151442115659172</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1521522034175616</v>
+        <v>0.3243368313480393</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4025982824969336</v>
+        <v>0.1640923823797323</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01540395310651716</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3784167003031603</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4025982824969336</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3784167003031603</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1547577079193505</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4159681752335746</v>
+        <v>0.3200721020028355</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.03938384646669791</v>
       </c>
     </row>
     <row r="25">
@@ -1301,34 +1375,37 @@
         <v>44165</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3615617657620152</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09101098354121191</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1564043622777396</v>
+        <v>0.3243368313480393</v>
       </c>
       <c r="E25" t="n">
-        <v>0.360906468500121</v>
+        <v>0.1640923823797323</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01820154919495984</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3950978459655414</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4211638221240261</v>
+        <v>0.3378400585304719</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3950978459655414</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1596786933840892</v>
+        <v>0.3200721020028355</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4368776997237254</v>
+        <v>0.3200721020028355</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.03938384646669791</v>
       </c>
     </row>
     <row r="26">
@@ -1336,34 +1413,37 @@
         <v>44196</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4005566236944134</v>
+        <v>0.3546680408156706</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1810172482853053</v>
+        <v>0.3027921632384319</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1400573197081701</v>
+        <v>0.3445303394812557</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3825976234512017</v>
+        <v>0.1330898937256399</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07331609379345808</v>
+        <v>0.3200005747748372</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3609285702013838</v>
+        <v>0.3546680408156706</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3889351846438182</v>
+        <v>0.3045601109492163</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3825976234512017</v>
+        <v>0.3394300421566609</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1828152900861156</v>
+        <v>0.3394300421566609</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4172199908357205</v>
+        <v>0.3045601109492163</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.04454655585337403</v>
       </c>
     </row>
     <row r="27">
@@ -1371,34 +1451,37 @@
         <v>44227</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3195324458340238</v>
+        <v>0.3427689973754628</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08886824807307925</v>
+        <v>0.3206792877524247</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1721648706908874</v>
+        <v>0.3250411410659595</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3823104294105304</v>
+        <v>0.2020635702554076</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06708338863513062</v>
+        <v>0.3427689973754628</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3524376127063836</v>
+        <v>0.3427689973754628</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4233008396023668</v>
+        <v>0.3089898899380333</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4377538183890747</v>
+        <v>0.3206792877524247</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1584878825854499</v>
+        <v>0.3206792877524247</v>
       </c>
       <c r="K27" t="n">
-        <v>0.435380955346033</v>
+        <v>0.3089898899380333</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.03989602181663848</v>
       </c>
     </row>
     <row r="28">
@@ -1406,34 +1489,37 @@
         <v>44255</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4194378673764015</v>
+        <v>0.3505124159438723</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2005180351457487</v>
+        <v>0.3273042555187212</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03131866575893529</v>
+        <v>0.331975762723334</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09078294147339384</v>
+        <v>0.2076032361558319</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4703616267497467</v>
+        <v>0.3178953784895422</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2318367009046814</v>
+        <v>0.3505124159438722</v>
       </c>
       <c r="H28" t="n">
-        <v>0.581256927716258</v>
+        <v>0.3152681536056073</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3627798632455998</v>
+        <v>0.3273042555187211</v>
       </c>
       <c r="J28" t="n">
-        <v>0.164239767634951</v>
+        <v>0.2917662555104455</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05665800413080414</v>
+        <v>0.3152681536056073</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.04178389167567213</v>
       </c>
     </row>
     <row r="29">
@@ -1441,34 +1527,37 @@
         <v>44286</v>
       </c>
       <c r="B29" t="n">
-        <v>0.42331716146744</v>
+        <v>0.3635377540516035</v>
       </c>
       <c r="C29" t="n">
-        <v>0.386869893846071</v>
+        <v>0.3373887020820183</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08817709336512396</v>
+        <v>0.3699169826661539</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3322138006520842</v>
+        <v>0.08221123118083248</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2313422307328947</v>
+        <v>0.2126254290598387</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3948652114868828</v>
+        <v>0.373648378787222</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4080273374134289</v>
+        <v>0.3269911463543809</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06140430127941386</v>
+        <v>0.3373887020820183</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2080619563267138</v>
+        <v>0.3373887020820183</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3605672197785003</v>
+        <v>0.2971751239073692</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.05187180146801493</v>
       </c>
     </row>
     <row r="30">
@@ -1476,34 +1565,37 @@
         <v>44316</v>
       </c>
       <c r="B30" t="n">
-        <v>0.191572500361569</v>
+        <v>0.173946534764366</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3155430578089199</v>
+        <v>0.2624333280520043</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1434154707984293</v>
+        <v>0.3884478164366261</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4576653606443895</v>
+        <v>0.04588443210671761</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1096456990186866</v>
+        <v>0.2002841956866814</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4987340888120531</v>
+        <v>0.2641355130058207</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3985793196541377</v>
+        <v>0.3902717205557743</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03435863108414847</v>
+        <v>0.4430891715677551</v>
       </c>
       <c r="J30" t="n">
-        <v>0.191572500361569</v>
+        <v>0.4075812779804125</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4197655214980367</v>
+        <v>0.2948558858663418</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1905004316998655</v>
       </c>
     </row>
     <row r="31">
@@ -1511,34 +1603,37 @@
         <v>44347</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3564976040893643</v>
+        <v>0.1732434475801836</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3890041736385837</v>
+        <v>0.2651943197349296</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09403885354214185</v>
+        <v>0.3524752350987969</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2726795238347633</v>
+        <v>0.03153462061167802</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4313434673363478</v>
+        <v>0.1659934893537456</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3483181802060078</v>
+        <v>0.2900159098961922</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3483181802060078</v>
+        <v>0.3789754364753976</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1487558175342124</v>
+        <v>0.4559240811738672</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3564976040893643</v>
+        <v>0.3819667820509383</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2458874770428743</v>
+        <v>0.2095561727689</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3485123084098836</v>
       </c>
     </row>
     <row r="32">
@@ -1546,34 +1641,37 @@
         <v>44377</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2105313449353813</v>
+        <v>0.2015126826719506</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2771071766204561</v>
+        <v>0.1070318283890045</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1451498990038218</v>
+        <v>0.3752785445060596</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4609965987167564</v>
+        <v>0.03936108169470861</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08030568070786248</v>
+        <v>0.2022641254920455</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4925954386530355</v>
+        <v>0.3902781184225627</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3874990027513875</v>
+        <v>0.4082275715664781</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02528567506771802</v>
+        <v>0.4429762224575019</v>
       </c>
       <c r="J32" t="n">
-        <v>0.229761892137104</v>
+        <v>0.3117022255777402</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4388817268294489</v>
+        <v>0.1070318283890045</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3752785445060597</v>
       </c>
     </row>
     <row r="33">
@@ -1581,34 +1679,37 @@
         <v>44408</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1401921947571875</v>
+        <v>0.2813861228797657</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1844458522993903</v>
+        <v>0.3048754982777597</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225632913323318</v>
+        <v>0.2674706322162542</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5659627873377252</v>
+        <v>0.0459204953785036</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1401921947571875</v>
+        <v>0.1526113790410975</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4626523378627641</v>
+        <v>0.3621542224902313</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4100787656227083</v>
+        <v>0.3947659036029556</v>
       </c>
       <c r="I33" t="n">
-        <v>0.111783110401695</v>
+        <v>0.3752093158291364</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2398604523287303</v>
+        <v>0.3752093158291364</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3212594843659496</v>
+        <v>0.2544894066934805</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3124237465201497</v>
       </c>
     </row>
     <row r="34">
@@ -1616,34 +1717,37 @@
         <v>44439</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3139375724006948</v>
+        <v>0.3397395453472116</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2946099963400753</v>
+        <v>0.2120947598107094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05188128839135734</v>
+        <v>0.3193017268979849</v>
       </c>
       <c r="E34" t="n">
-        <v>0.240432952665478</v>
+        <v>0.02316133250842261</v>
       </c>
       <c r="F34" t="n">
-        <v>0.291860922467293</v>
+        <v>0.3193017268979849</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2835133235194232</v>
+        <v>0.3442410994865963</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3598478544412375</v>
+        <v>0.3442410994865963</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4300934043465443</v>
+        <v>0.364678917935823</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3139375724006948</v>
+        <v>0.364678917935823</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4189967315258921</v>
+        <v>0.1738111991192427</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.3193017268979849</v>
       </c>
     </row>
     <row r="35">
@@ -1651,34 +1755,37 @@
         <v>44469</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2751711358156311</v>
+        <v>0.352303216695542</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3647024082542391</v>
+        <v>0.3009129513852394</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05277269553643262</v>
+        <v>0.2837779814035128</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2222691014894316</v>
+        <v>0.03890997297629593</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4233047318528701</v>
+        <v>0.1708588803963012</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2821188753317929</v>
+        <v>0.352303216695542</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4073494720992396</v>
+        <v>0.352303216695542</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4233047318528701</v>
+        <v>0.3329899319933372</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3123789586416916</v>
+        <v>0.3329899319933372</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1939211966192981</v>
+        <v>0.3053115720751807</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3329899319933372</v>
       </c>
     </row>
     <row r="36">
@@ -1686,34 +1793,37 @@
         <v>44500</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2370544739838176</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3512166296375801</v>
+        <v>0.2916623852308128</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04979268039325922</v>
+        <v>0.2916623852308128</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2280163917936303</v>
+        <v>0.03682981523910147</v>
       </c>
       <c r="F36" t="n">
-        <v>0.370278109834959</v>
+        <v>0.3250903708360747</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3677548753425763</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3920847503441452</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4782275244443747</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2370544739838177</v>
+        <v>0.3213422566988268</v>
       </c>
       <c r="K36" t="n">
-        <v>0.234531239491435</v>
+        <v>0.3213422566988268</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3213422566988268</v>
       </c>
     </row>
     <row r="37">
@@ -1721,34 +1831,37 @@
         <v>44530</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1433133903260814</v>
+        <v>0.3136355648117536</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3728335958748002</v>
+        <v>0.3136355648117536</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06269079443070431</v>
+        <v>0.2010385428752741</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2714457905282102</v>
+        <v>0.04062349086785227</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2941886987114921</v>
+        <v>0.3136355648117536</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4191703704585601</v>
+        <v>0.3351224246591759</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4237623260139639</v>
+        <v>0.3351224246591759</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4772151831504384</v>
+        <v>0.3394642958712525</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1433133903260814</v>
+        <v>0.3351224246591759</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2697129423919394</v>
+        <v>0.3136355648117536</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3351224246591759</v>
       </c>
     </row>
     <row r="38">
@@ -1756,34 +1869,37 @@
         <v>44561</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3027177285241744</v>
+        <v>0.3198720691495843</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2541665165863793</v>
+        <v>0.3198720691495843</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06427314380061511</v>
+        <v>0.2059343442067765</v>
       </c>
       <c r="E38" t="n">
-        <v>0.181300466580883</v>
+        <v>0.03552423456626411</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3939861615489259</v>
+        <v>0.2898254363520617</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3686577983862814</v>
+        <v>0.3423572516824589</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4103997500560052</v>
+        <v>0.3423572516824589</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3849713913588217</v>
+        <v>0.3107119535736718</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2976174555339257</v>
+        <v>0.342357251682459</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3322946250463683</v>
+        <v>0.3198720691495843</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.342357251682459</v>
       </c>
     </row>
     <row r="39">
@@ -1791,34 +1907,37 @@
         <v>44592</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2549576644477422</v>
+        <v>0.3322520095668034</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3248191281719374</v>
+        <v>0.2575286826058685</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03175665074800667</v>
+        <v>0.2177806261208712</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3248191281719374</v>
+        <v>0.03858168218897465</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3856965499876766</v>
+        <v>0.2998388325515333</v>
       </c>
       <c r="G39" t="n">
-        <v>0.358083271179462</v>
+        <v>0.3570799600227511</v>
       </c>
       <c r="H39" t="n">
-        <v>0.358083271179462</v>
+        <v>0.3570799600227511</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3856965499876766</v>
+        <v>0.322896835455503</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2116451166176112</v>
+        <v>0.3277204197529153</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3524324069801519</v>
+        <v>0.3322520095668034</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3277204197529153</v>
       </c>
     </row>
     <row r="40">
@@ -1826,34 +1945,37 @@
         <v>44620</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3121216963249963</v>
+        <v>0.3251112132890556</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2959984722226552</v>
+        <v>0.2870063738727586</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04626159569377734</v>
+        <v>0.0536773059235239</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2071700418847071</v>
+        <v>0.04716200285478699</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3497138664656976</v>
+        <v>0.2924759624793676</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3760246763619476</v>
+        <v>0.4111884652068101</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3760246763619476</v>
+        <v>0.4111884652068101</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3497138664656976</v>
+        <v>0.3328845965819041</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3179970772480734</v>
+        <v>0.2845998578352433</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3760246763619476</v>
+        <v>0.3321507540228846</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.2845998578352433</v>
       </c>
     </row>
     <row r="41">
@@ -1861,34 +1983,37 @@
         <v>44651</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3051835475783848</v>
+        <v>0.2998409419590689</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3051835475783848</v>
+        <v>0.2643239345801793</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04414768162678291</v>
+        <v>0.06020601499926527</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3448313088995768</v>
+        <v>0.04468405922335961</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3398206279751442</v>
+        <v>0.2627163502872544</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3398206279751442</v>
+        <v>0.4270020456537386</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3398206279751442</v>
+        <v>0.4270020456537386</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3398206279751442</v>
+        <v>0.3539798152968457</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3398206279751442</v>
+        <v>0.2564971826833185</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3398206279751442</v>
+        <v>0.3460976712235703</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3000822398288933</v>
       </c>
     </row>
     <row r="42">
@@ -1896,34 +2021,37 @@
         <v>44681</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3334073842498905</v>
+        <v>0.3429425406340026</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1964250999466036</v>
+        <v>0.09631560511715016</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04972151363371762</v>
+        <v>0.07133859826527669</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3334073842498905</v>
+        <v>0.07784421222322993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3570679173457485</v>
+        <v>0.3196176825789674</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3570679173457485</v>
+        <v>0.4243498098169304</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3570679173457485</v>
+        <v>0.467164972562089</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3630571895867529</v>
+        <v>0.2929020067998719</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3334073842498905</v>
+        <v>0.2171331867860665</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3334073842498905</v>
+        <v>0.3954555012390666</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.2686447570790175</v>
       </c>
     </row>
     <row r="43">
@@ -1931,34 +2059,37 @@
         <v>44712</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3420036340007626</v>
+        <v>0.3363056355875829</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2020452580855968</v>
+        <v>0.1908632169760621</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04332139101204083</v>
+        <v>0.1908632169760621</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3066322885566409</v>
+        <v>0.04101648812068111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3670149774382903</v>
+        <v>0.2533582057696142</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3670149774382903</v>
+        <v>0.3907198453036154</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3670149774382903</v>
+        <v>0.3984808698189718</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3290564881280331</v>
+        <v>0.3897729552368395</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3420036340007627</v>
+        <v>0.2553730989607069</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3420036340007627</v>
+        <v>0.3984808698189719</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.2465641306238054</v>
       </c>
     </row>
     <row r="44">
@@ -1966,34 +2097,37 @@
         <v>44742</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3080147325108086</v>
+        <v>0.340552020010209</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2090648187475095</v>
+        <v>0.1392527699467796</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0458393270344275</v>
+        <v>0.07227016107326012</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3139514265523487</v>
+        <v>0.05628418069116786</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3385393881934267</v>
+        <v>0.3057467072225032</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3777819965424911</v>
+        <v>0.392587353212259</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3777819965424911</v>
+        <v>0.424907455528465</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3377829422210019</v>
+        <v>0.3099019960845381</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3511462492637678</v>
+        <v>0.232694221982165</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3511462492637678</v>
+        <v>0.4465564402716004</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.2801631229107258</v>
       </c>
     </row>
     <row r="45">
@@ -2001,34 +2135,37 @@
         <v>44773</v>
       </c>
       <c r="B45" t="n">
-        <v>0.330793640601444</v>
+        <v>0.2222107295004042</v>
       </c>
       <c r="C45" t="n">
-        <v>0.05768618063340914</v>
+        <v>0.08895262140574844</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05954528526178227</v>
+        <v>0.09101883046662937</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3383838750952751</v>
+        <v>0.08702216725453879</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2607719462018828</v>
+        <v>0.4019384227090407</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4175489844290443</v>
+        <v>0.4203999833935779</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4175489844290443</v>
+        <v>0.4422082559514657</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3278125163839656</v>
+        <v>0.3219479874599766</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3785274395567123</v>
+        <v>0.2737815921290699</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3189956094736291</v>
+        <v>0.4108544365146331</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.2135544886111045</v>
       </c>
     </row>
     <row r="46">
@@ -2036,34 +2173,37 @@
         <v>44804</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3051076221213375</v>
+        <v>0.2421176215421932</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06606014929596624</v>
+        <v>0.1044290107719571</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05734171355159529</v>
+        <v>0.1092421239587093</v>
       </c>
       <c r="E46" t="n">
-        <v>0.30545255399476</v>
+        <v>0.1218044113591493</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2299741646848188</v>
+        <v>0.4909152066213074</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4365800802064155</v>
+        <v>0.4402861707403112</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4365800802064155</v>
+        <v>0.4185697009013395</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3518972787797898</v>
+        <v>0.01588419941194287</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4002316414791828</v>
+        <v>0.3349005163495739</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2963891863769665</v>
+        <v>0.4208854316819183</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0640158244521965</v>
       </c>
     </row>
     <row r="47">
@@ -2071,34 +2211,37 @@
         <v>44834</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1115577960994669</v>
+        <v>0.2472347949088619</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06523206553854778</v>
+        <v>0.1075274152404405</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09319956385340661</v>
+        <v>0.1047194822092307</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3556104308725597</v>
+        <v>0.1171803217704629</v>
       </c>
       <c r="F47" t="n">
-        <v>0.244860093814454</v>
+        <v>0.4795662203918224</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4754959650641939</v>
+        <v>0.4285706415054721</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4587833356232856</v>
+        <v>0.4080074514456892</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2488946941946014</v>
+        <v>0.1300544731384646</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4256544366896183</v>
+        <v>0.3215948082571879</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3293772955967224</v>
+        <v>0.4400594400956555</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.09219046023621533</v>
       </c>
     </row>
     <row r="48">
@@ -2106,34 +2249,37 @@
         <v>44865</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2095787503484235</v>
+        <v>0.2557671883906446</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2095787503484235</v>
+        <v>0.1259516155732203</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04759918995149299</v>
+        <v>0.1174978871176333</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2757248628069828</v>
+        <v>0.1174978871176333</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2782233354539166</v>
+        <v>0.4481061805214007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4284890236919988</v>
+        <v>0.4481061805214007</v>
       </c>
       <c r="H48" t="n">
-        <v>0.397635421439151</v>
+        <v>0.4280129785703065</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3878973697545866</v>
+        <v>0.1259516155732203</v>
       </c>
       <c r="J48" t="n">
-        <v>0.397635421439151</v>
+        <v>0.2349957742310442</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3258225251674366</v>
+        <v>0.4803434234855528</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.06706558877448683</v>
       </c>
     </row>
     <row r="49">
@@ -2141,34 +2287,37 @@
         <v>44895</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1492232613584587</v>
+        <v>0.2967483973123268</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0883132938937615</v>
+        <v>0.1231261321916834</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06901788612580233</v>
+        <v>0.06714324985483461</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3445596900213908</v>
+        <v>0.1204748226129912</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2640240600278375</v>
+        <v>0.4523120298845066</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4408886181898088</v>
+        <v>0.4269724710741828</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4261509240794701</v>
+        <v>0.4363673194073613</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2939150296087753</v>
+        <v>0.1077377851278573</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4510535058670063</v>
+        <v>0.2520840987763294</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3330419402969166</v>
+        <v>0.4622646330347926</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.1077377851278573</v>
       </c>
     </row>
     <row r="50">
@@ -2176,34 +2325,37 @@
         <v>44926</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09761309261634012</v>
+        <v>0.2174337160511522</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0906231329181474</v>
+        <v>0.07711438034640242</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0906231329181474</v>
+        <v>0.3442264822847937</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4271599140390673</v>
+        <v>0.08991866574552144</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2788592487717986</v>
+        <v>0.4235829058048518</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4271599140390673</v>
+        <v>0.4078373676175794</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3942143134700413</v>
+        <v>0.4459122413148137</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1812462109958766</v>
+        <v>0.1393504342193202</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4601055146080935</v>
+        <v>0.3442264822847937</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3624923671513351</v>
+        <v>0.3632633983128873</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.07573954888653456</v>
       </c>
     </row>
   </sheetData>
